--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1343233.2528896</v>
+        <v>-1345914.115953008</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>226.6923007769138</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>322.1173278919824</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>32.47207459027715</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>33.30960826265193</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>158.8157302813665</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>345.3175219434857</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1063,16 +1063,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>19.29953780256779</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>110.383803469661</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>222.9974015203163</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>90.49410458626164</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>53.77227931789759</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>83.11700683274893</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1543,10 +1543,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>41.02686156550261</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>107.1685137621105</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>213.4159673288106</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>201.1906419534422</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>98.20549876776197</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>145.2857567969021</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408062</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2612,7 +2612,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>68.17501931583776</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2947,22 +2947,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>81.27859867330056</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545298</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3424,10 +3424,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
@@ -3436,13 +3436,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3661,7 +3661,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
         <v>124.3308255261727</v>
@@ -3670,7 +3670,7 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
         <v>141.2394908002292</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652586</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808201</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3715,7 +3715,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3791,7 +3791,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
         <v>142.9621736065881</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="44">
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1641.622808667129</v>
+        <v>1216.983460896266</v>
       </c>
       <c r="C2" t="n">
-        <v>1272.660291726717</v>
+        <v>848.0209439558548</v>
       </c>
       <c r="D2" t="n">
-        <v>914.3945931199664</v>
+        <v>848.0209439558548</v>
       </c>
       <c r="E2" t="n">
-        <v>528.6063405217222</v>
+        <v>462.2326913576106</v>
       </c>
       <c r="F2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4358,22 +4358,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>2353.59368700598</v>
+        <v>2333.357206403272</v>
       </c>
       <c r="W2" t="n">
-        <v>2353.59368700598</v>
+        <v>1980.588551133158</v>
       </c>
       <c r="X2" t="n">
-        <v>2028.22264873125</v>
+        <v>1607.122792872078</v>
       </c>
       <c r="Y2" t="n">
-        <v>2028.22264873125</v>
+        <v>1216.983460896266</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605191</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919908</v>
+        <v>884.908532145821</v>
       </c>
       <c r="M3" t="n">
-        <v>1342.935112151211</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N3" t="n">
-        <v>1730.220240748156</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O3" t="n">
-        <v>2062.290675924318</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P3" t="n">
-        <v>2309.473409756615</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>716.5983551657498</v>
+        <v>769.5800553833139</v>
       </c>
       <c r="C4" t="n">
-        <v>547.6621722378429</v>
+        <v>600.6438724554071</v>
       </c>
       <c r="D4" t="n">
-        <v>514.8620968941286</v>
+        <v>600.6438724554071</v>
       </c>
       <c r="E4" t="n">
-        <v>514.8620968941286</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="F4" t="n">
-        <v>367.9721493962183</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4495,7 +4495,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4507,31 +4507,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074498</v>
+        <v>1602.800051122324</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074498</v>
+        <v>1602.800051122324</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074498</v>
+        <v>1313.681713626162</v>
       </c>
       <c r="V4" t="n">
-        <v>1636.446120074498</v>
+        <v>1058.997225420275</v>
       </c>
       <c r="W4" t="n">
-        <v>1347.028950037537</v>
+        <v>769.5800553833139</v>
       </c>
       <c r="X4" t="n">
-        <v>1119.03939913952</v>
+        <v>769.5800553833139</v>
       </c>
       <c r="Y4" t="n">
-        <v>898.2468199959895</v>
+        <v>769.5800553833139</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>777.9561815953474</v>
+        <v>1407.319888150871</v>
       </c>
       <c r="C5" t="n">
-        <v>777.9561815953474</v>
+        <v>1038.35737121046</v>
       </c>
       <c r="D5" t="n">
-        <v>777.9561815953474</v>
+        <v>1038.35737121046</v>
       </c>
       <c r="E5" t="n">
-        <v>777.9561815953474</v>
+        <v>1038.35737121046</v>
       </c>
       <c r="F5" t="n">
-        <v>771.0106808461439</v>
+        <v>627.3714664208521</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>211.666716145141</v>
       </c>
       <c r="H5" t="n">
         <v>51.2467865680031</v>
@@ -4568,10 +4568,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4601,16 +4601,16 @@
         <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>1852.996172847234</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W5" t="n">
-        <v>1500.22751757712</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="X5" t="n">
-        <v>1126.76175931604</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="Y5" t="n">
-        <v>777.9561815953474</v>
+        <v>1793.919728214993</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
@@ -4647,19 +4647,19 @@
         <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>482.9033490193025</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>777.6069060507741</v>
+        <v>932.4978103100997</v>
       </c>
       <c r="M6" t="n">
-        <v>1140.868925009994</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N6" t="n">
-        <v>1528.154053606939</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O6" t="n">
-        <v>1860.224488783101</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P6" t="n">
         <v>2422.685363568936</v>
@@ -4677,16 +4677,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>833.0891146802707</v>
+        <v>643.5623317901019</v>
       </c>
       <c r="C7" t="n">
-        <v>664.1529317523638</v>
+        <v>474.626148862195</v>
       </c>
       <c r="D7" t="n">
-        <v>514.036292340028</v>
+        <v>324.5095094498593</v>
       </c>
       <c r="E7" t="n">
-        <v>366.1231987576349</v>
+        <v>176.5964158674661</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>176.5964158674661</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>176.5964158674661</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
         <v>51.2467865680031</v>
@@ -4759,16 +4759,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1524.947328691001</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W7" t="n">
-        <v>1235.53015865404</v>
+        <v>1092.344461831649</v>
       </c>
       <c r="X7" t="n">
-        <v>1235.53015865404</v>
+        <v>864.354910933632</v>
       </c>
       <c r="Y7" t="n">
-        <v>1014.73757951051</v>
+        <v>643.5623317901019</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1416.181083656474</v>
+        <v>1146.918698535759</v>
       </c>
       <c r="C8" t="n">
-        <v>1416.181083656474</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="D8" t="n">
-        <v>1057.915385049724</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="E8" t="n">
-        <v>1057.915385049724</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="F8" t="n">
-        <v>646.9294802601164</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4832,22 +4832,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2470.931141949386</v>
       </c>
       <c r="U8" t="n">
-        <v>2100.012626270159</v>
+        <v>2217.350081213566</v>
       </c>
       <c r="V8" t="n">
-        <v>1768.949738926588</v>
+        <v>1886.287193869995</v>
       </c>
       <c r="W8" t="n">
-        <v>1416.181083656474</v>
+        <v>1533.518538599881</v>
       </c>
       <c r="X8" t="n">
-        <v>1416.181083656474</v>
+        <v>1533.518538599881</v>
       </c>
       <c r="Y8" t="n">
-        <v>1416.181083656474</v>
+        <v>1533.518538599881</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
@@ -4878,31 +4878,31 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380227</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>845.991191822219</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1209.253210781439</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>496.1664670606423</v>
+        <v>359.3304604754449</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1664670606423</v>
+        <v>305.0150268210028</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483066</v>
+        <v>305.0150268210028</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T10" t="n">
-        <v>1449.906141031747</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U10" t="n">
-        <v>1449.906141031747</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="V10" t="n">
-        <v>1195.22165282586</v>
+        <v>1279.178225384193</v>
       </c>
       <c r="W10" t="n">
-        <v>905.8044827888993</v>
+        <v>989.7610553472321</v>
       </c>
       <c r="X10" t="n">
-        <v>677.814931890882</v>
+        <v>761.7715044492147</v>
       </c>
       <c r="Y10" t="n">
-        <v>677.814931890882</v>
+        <v>540.9789253056846</v>
       </c>
     </row>
     <row r="11">
@@ -5033,22 +5033,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5057,31 +5057,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,10 +5112,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5127,19 +5127,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>916.3099000622266</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>747.3737171343197</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>597.2570777219839</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>449.3439841395908</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>302.4540366416804</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>135.2579373565604</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>135.2579373565604</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5227,22 +5227,22 @@
         <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W13" t="n">
-        <v>1616.556199993915</v>
+        <v>1546.740494934014</v>
       </c>
       <c r="X13" t="n">
-        <v>1388.566649095898</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="14">
@@ -5270,25 +5270,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
@@ -5315,10 +5315,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5364,10 +5364,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190824</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
         <v>1896.176478190824</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>801.6605733532801</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1539.859873431788</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1250.442703394828</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1022.45315249681</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>801.6605733532801</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,25 +5510,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5589,25 +5589,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>702.4944101284095</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C19" t="n">
-        <v>533.5582272005026</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D19" t="n">
-        <v>383.4415877881669</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E19" t="n">
-        <v>235.5284942057738</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1774.238209850466</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1519.553721644579</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1230.136551607618</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>1002.147000709601</v>
       </c>
       <c r="Y19" t="n">
-        <v>884.1428749586493</v>
+        <v>781.3544215660705</v>
       </c>
     </row>
     <row r="20">
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="23">
@@ -5969,7 +5969,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6078,16 +6078,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1670.092171589158</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6221,25 +6221,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6312,13 +6312,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>244.7670222746419</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6449,10 +6449,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6540,22 +6540,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6786,10 +6786,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150018</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384018</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954152</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6889,19 +6889,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1702.079034721979</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656815</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D37" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.221455958011</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
@@ -7117,25 +7117,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,19 +7251,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656812</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150018</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942649</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580108</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
@@ -7333,10 +7333,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,28 +7354,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7391,10 +7391,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7412,7 +7412,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345471</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384015</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,22 +7804,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
         <v>2496.057455973196</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>294.8344935184726</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>114.3555089013349</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,10 +8295,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>186.4490126143851</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,10 +8307,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>162.0073097921339</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8529,19 +8529,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>255.5240487471575</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8705,7 +8705,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>-3.760605570683943e-14</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>-1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -22544,13 +22544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>146.5536492191988</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>84.24691516365877</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>101.0599576932212</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>47.61377278648666</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>40.23897475306291</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>111.4161395899843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101226</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>38.72167599501745</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>84.99383243580195</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>120.3791545843328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>72.11969353038613</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24835,22 +24835,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>85.96822242532727</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1257786.613134646</v>
+        <v>1257786.613134645</v>
       </c>
     </row>
     <row r="7">
@@ -26317,43 +26317,43 @@
         <v>164208.3539728568</v>
       </c>
       <c r="D2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728568</v>
       </c>
       <c r="E2" t="n">
+        <v>161429.3199380012</v>
+      </c>
+      <c r="F2" t="n">
         <v>161429.3199380013</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>161429.3199380012</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>161429.3199380013</v>
-      </c>
-      <c r="H2" t="n">
-        <v>161429.3199380012</v>
       </c>
       <c r="I2" t="n">
         <v>161429.3199380012</v>
       </c>
       <c r="J2" t="n">
-        <v>161429.3199380013</v>
+        <v>161429.3199380012</v>
       </c>
       <c r="K2" t="n">
         <v>161429.3199380012</v>
       </c>
       <c r="L2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728568</v>
       </c>
       <c r="M2" t="n">
-        <v>164208.3539728566</v>
+        <v>164208.3539728568</v>
       </c>
       <c r="N2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728568</v>
       </c>
       <c r="O2" t="n">
         <v>164208.3539728567</v>
       </c>
       <c r="P2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728567</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245462</v>
+        <v>507485.4416245459</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>6.252776074688882e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>19427.71799363177</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50904.45160960673</v>
+        <v>50904.45160960677</v>
       </c>
       <c r="C4" t="n">
         <v>133113.8635467444</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
+        <v>7507.368461719642</v>
+      </c>
+      <c r="F4" t="n">
         <v>7507.368461719667</v>
-      </c>
-      <c r="F4" t="n">
-        <v>7507.368461719637</v>
       </c>
       <c r="G4" t="n">
         <v>7507.368461719667</v>
@@ -26436,10 +26436,10 @@
         <v>7507.368461719692</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.36846171968</v>
+        <v>7507.368461719698</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719682</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
         <v>7507.368461719667</v>
@@ -26448,16 +26448,16 @@
         <v>15498.22772481315</v>
       </c>
       <c r="M4" t="n">
+        <v>15498.22772481313</v>
+      </c>
+      <c r="N4" t="n">
+        <v>15498.22772481313</v>
+      </c>
+      <c r="O4" t="n">
         <v>15498.22772481315</v>
       </c>
-      <c r="N4" t="n">
-        <v>15498.22772481312</v>
-      </c>
-      <c r="O4" t="n">
-        <v>15498.22772481313</v>
-      </c>
       <c r="P4" t="n">
-        <v>15498.22772481313</v>
+        <v>15498.22772481314</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1123192.294909914</v>
+        <v>-1123552.377925631</v>
       </c>
       <c r="C6" t="n">
-        <v>-61843.28201373233</v>
+        <v>-61843.2820137323</v>
       </c>
       <c r="D6" t="n">
-        <v>-61843.28201373233</v>
+        <v>-61843.28201373223</v>
       </c>
       <c r="E6" t="n">
-        <v>-454686.0199721717</v>
+        <v>-454720.7578976072</v>
       </c>
       <c r="F6" t="n">
-        <v>52799.42165237445</v>
+        <v>52764.68372693879</v>
       </c>
       <c r="G6" t="n">
-        <v>52799.42165237451</v>
+        <v>52764.68372693876</v>
       </c>
       <c r="H6" t="n">
-        <v>52799.42165237443</v>
+        <v>52764.68372693876</v>
       </c>
       <c r="I6" t="n">
-        <v>52799.4216523744</v>
+        <v>52764.6837269387</v>
       </c>
       <c r="J6" t="n">
-        <v>-114805.756157608</v>
+        <v>-114840.4940830438</v>
       </c>
       <c r="K6" t="n">
-        <v>52799.42165237437</v>
+        <v>52764.68372693876</v>
       </c>
       <c r="L6" t="n">
-        <v>26118.29240049639</v>
+        <v>26118.29240049644</v>
       </c>
       <c r="M6" t="n">
-        <v>-87061.28333479869</v>
+        <v>-87061.28333479838</v>
       </c>
       <c r="N6" t="n">
+        <v>45546.0103941283</v>
+      </c>
+      <c r="O6" t="n">
+        <v>45546.01039412813</v>
+      </c>
+      <c r="P6" t="n">
         <v>45546.01039412821</v>
-      </c>
-      <c r="O6" t="n">
-        <v>45546.01039412821</v>
-      </c>
-      <c r="P6" t="n">
-        <v>45546.01039412824</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>7.815970093361102e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>24.28464749203972</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>7.815970093361102e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>264.9940535537552</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>39.20530023513558</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>116.1433984279352</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>161.3528520990855</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,13 +27625,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>142.2028222810389</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>40.92041671256789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>127.9519713525611</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27831,13 +27831,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>141.753839854167</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>188.5503012526377</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>116.1640803939721</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>113.4745417807302</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,7 +28062,7 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>137.631689164463</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28530,7 +28530,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -29044,7 +29044,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="41">
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31045,28 +31045,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31081,7 +31081,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,7 +31118,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
@@ -31130,10 +31130,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040589</v>
@@ -31142,7 +31142,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378626</v>
@@ -31154,10 +31154,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31203,19 +31203,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31847,13 +31847,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>405.637736314577</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>333.9544784328822</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214699</v>
@@ -31862,7 +31862,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -32084,13 +32084,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>414.644818552487</v>
       </c>
       <c r="N15" t="n">
-        <v>357.9244589488883</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214699</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>489.3502824033309</v>
       </c>
       <c r="N18" t="n">
-        <v>359.7096985496632</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,25 +32546,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>491.1355220041058</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32798,10 +32798,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O24" t="n">
-        <v>333.9544784328825</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33032,16 +33032,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>652.0478969157701</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33260,10 +33260,10 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,10 +33275,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>461.1007071927452</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33506,13 +33506,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33743,22 +33743,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>301.6445156724565</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33904,7 +33904,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
         <v>926.5868626460027</v>
@@ -33916,7 +33916,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33971,7 +33971,7 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34132,7 +34132,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34147,7 +34147,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669223</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34699,28 +34699,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560635</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378503</v>
+        <v>592.5148541563228</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
@@ -34796,10 +34796,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>230.8362312321895</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977097</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
@@ -34863,7 +34863,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
@@ -35015,10 +35015,10 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>373.0365088578699</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820404</v>
@@ -35027,10 +35027,10 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>497.4319917882568</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
         <v>116.4807223308545</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313198</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>553.2044093850077</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35425,7 +35425,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q11" t="n">
         <v>371.5675334924729</v>
@@ -35495,13 +35495,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2960242312436</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>191.3582339884378</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071396</v>
@@ -35510,7 +35510,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35659,7 +35659,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243148</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
@@ -35732,13 +35732,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>272.5107846304687</v>
       </c>
       <c r="N15" t="n">
-        <v>226.582746865555</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071396</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>347.2162484813126</v>
       </c>
       <c r="N18" t="n">
-        <v>228.3679864663299</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36136,7 +36136,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924728</v>
@@ -36194,25 +36194,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>349.0014880820875</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36446,10 +36446,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O24" t="n">
-        <v>191.358233988438</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36680,16 +36680,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>509.9138629937518</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,10 +36923,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>318.5044627483008</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37154,13 +37154,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37227,10 +37227,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37391,22 +37391,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>159.048271228012</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37552,7 +37552,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016746</v>
@@ -37716,7 +37716,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
         <v>144.686904791938</v>
@@ -37780,7 +37780,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37795,7 +37795,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
